--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Fzd7</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H2">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I2">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J2">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.16549738696048</v>
+        <v>1.285689666666667</v>
       </c>
       <c r="N2">
-        <v>1.16549738696048</v>
+        <v>3.857069</v>
       </c>
       <c r="O2">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="P2">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="Q2">
-        <v>5.953366766751956</v>
+        <v>0.4814697805687778</v>
       </c>
       <c r="R2">
-        <v>5.953366766751956</v>
+        <v>4.333228025119</v>
       </c>
       <c r="S2">
-        <v>0.04573087678753546</v>
+        <v>0.003306918554130043</v>
       </c>
       <c r="T2">
-        <v>0.04573087678753546</v>
+        <v>0.003306918554130044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H3">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I3">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J3">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.87889524277116</v>
+        <v>7.890688</v>
       </c>
       <c r="N3">
-        <v>7.87889524277116</v>
+        <v>23.672064</v>
       </c>
       <c r="O3">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="P3">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="Q3">
-        <v>40.2454382324792</v>
+        <v>2.954933774762666</v>
       </c>
       <c r="R3">
-        <v>40.2454382324792</v>
+        <v>26.594403972864</v>
       </c>
       <c r="S3">
-        <v>0.3091459419816653</v>
+        <v>0.02029561505281701</v>
       </c>
       <c r="T3">
-        <v>0.3091459419816653</v>
+        <v>0.02029561505281701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H4">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I4">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J4">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.49934457713543</v>
+        <v>6.536593666666666</v>
       </c>
       <c r="N4">
-        <v>6.49934457713543</v>
+        <v>19.609781</v>
       </c>
       <c r="O4">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927831</v>
       </c>
       <c r="P4">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927832</v>
       </c>
       <c r="Q4">
-        <v>33.19868619533818</v>
+        <v>2.447847563803444</v>
       </c>
       <c r="R4">
-        <v>33.19868619533818</v>
+        <v>22.030628074231</v>
       </c>
       <c r="S4">
-        <v>0.2550162097161315</v>
+        <v>0.01681275305972664</v>
       </c>
       <c r="T4">
-        <v>0.2550162097161315</v>
+        <v>0.01681275305972665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H5">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I5">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J5">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.35076331329085</v>
+        <v>5.505106</v>
       </c>
       <c r="N5">
-        <v>5.35076331329085</v>
+        <v>16.515318</v>
       </c>
       <c r="O5">
-        <v>0.2312257022960731</v>
+        <v>0.231946855741777</v>
       </c>
       <c r="P5">
-        <v>0.2312257022960731</v>
+        <v>0.2319468557417771</v>
       </c>
       <c r="Q5">
-        <v>27.33172707420362</v>
+        <v>2.061572280268667</v>
       </c>
       <c r="R5">
-        <v>27.33172707420362</v>
+        <v>18.554150522418</v>
       </c>
       <c r="S5">
-        <v>0.2099490745642195</v>
+        <v>0.01415966671105907</v>
       </c>
       <c r="T5">
-        <v>0.2099490745642195</v>
+        <v>0.01415966671105907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H6">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I6">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J6">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.24636686680524</v>
+        <v>2.516264666666667</v>
       </c>
       <c r="N6">
-        <v>2.24636686680524</v>
+        <v>7.548794</v>
       </c>
       <c r="O6">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="P6">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="Q6">
-        <v>11.47445374000182</v>
+        <v>0.9423000186771111</v>
       </c>
       <c r="R6">
-        <v>11.47445374000182</v>
+        <v>8.480700168094</v>
       </c>
       <c r="S6">
-        <v>0.08814118980856697</v>
+        <v>0.006472076838632015</v>
       </c>
       <c r="T6">
-        <v>0.08814118980856697</v>
+        <v>0.006472076838632016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5176547041053829</v>
+        <v>5.135293</v>
       </c>
       <c r="H7">
-        <v>0.5176547041053829</v>
+        <v>15.405879</v>
       </c>
       <c r="I7">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="J7">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.16549738696048</v>
+        <v>1.285689666666667</v>
       </c>
       <c r="N7">
-        <v>1.16549738696048</v>
+        <v>3.857069</v>
       </c>
       <c r="O7">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="P7">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="Q7">
-        <v>0.6033252049826243</v>
+        <v>6.602393145405666</v>
       </c>
       <c r="R7">
-        <v>0.6033252049826243</v>
+        <v>59.42153830865099</v>
       </c>
       <c r="S7">
-        <v>0.004634451679671647</v>
+        <v>0.04534776070143014</v>
       </c>
       <c r="T7">
-        <v>0.004634451679671647</v>
+        <v>0.04534776070143015</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5176547041053829</v>
+        <v>5.135293</v>
       </c>
       <c r="H8">
-        <v>0.5176547041053829</v>
+        <v>15.405879</v>
       </c>
       <c r="I8">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="J8">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.87889524277116</v>
+        <v>7.890688</v>
       </c>
       <c r="N8">
-        <v>7.87889524277116</v>
+        <v>23.672064</v>
       </c>
       <c r="O8">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="P8">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="Q8">
-        <v>4.078547185574014</v>
+        <v>40.520994851584</v>
       </c>
       <c r="R8">
-        <v>4.078547185574014</v>
+        <v>364.688953664256</v>
       </c>
       <c r="S8">
-        <v>0.03132942184198641</v>
+        <v>0.2783136867867646</v>
       </c>
       <c r="T8">
-        <v>0.03132942184198641</v>
+        <v>0.2783136867867646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5176547041053829</v>
+        <v>5.135293</v>
       </c>
       <c r="H9">
-        <v>0.5176547041053829</v>
+        <v>15.405879</v>
       </c>
       <c r="I9">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="J9">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.49934457713543</v>
+        <v>6.536593666666666</v>
       </c>
       <c r="N9">
-        <v>6.49934457713543</v>
+        <v>19.609781</v>
       </c>
       <c r="O9">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927831</v>
       </c>
       <c r="P9">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927832</v>
       </c>
       <c r="Q9">
-        <v>3.364416293955966</v>
+        <v>33.56732370027766</v>
       </c>
       <c r="R9">
-        <v>3.364416293955966</v>
+        <v>302.1059133024989</v>
       </c>
       <c r="S9">
-        <v>0.0258438146059022</v>
+        <v>0.2305532144214821</v>
       </c>
       <c r="T9">
-        <v>0.0258438146059022</v>
+        <v>0.2305532144214821</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5176547041053829</v>
+        <v>5.135293</v>
       </c>
       <c r="H10">
-        <v>0.5176547041053829</v>
+        <v>15.405879</v>
       </c>
       <c r="I10">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="J10">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.35076331329085</v>
+        <v>5.505106</v>
       </c>
       <c r="N10">
-        <v>5.35076331329085</v>
+        <v>16.515318</v>
       </c>
       <c r="O10">
-        <v>0.2312257022960731</v>
+        <v>0.231946855741777</v>
       </c>
       <c r="P10">
-        <v>0.2312257022960731</v>
+        <v>0.2319468557417771</v>
       </c>
       <c r="Q10">
-        <v>2.769847799679513</v>
+        <v>28.270332306058</v>
       </c>
       <c r="R10">
-        <v>2.769847799679513</v>
+        <v>254.432990754522</v>
       </c>
       <c r="S10">
-        <v>0.02127662773185356</v>
+        <v>0.1941714520979588</v>
       </c>
       <c r="T10">
-        <v>0.02127662773185356</v>
+        <v>0.1941714520979589</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.135293</v>
+      </c>
+      <c r="H11">
+        <v>15.405879</v>
+      </c>
+      <c r="I11">
+        <v>0.8371376774088587</v>
+      </c>
+      <c r="J11">
+        <v>0.8371376774088587</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.516264666666667</v>
+      </c>
+      <c r="N11">
+        <v>7.548794</v>
+      </c>
+      <c r="O11">
+        <v>0.1060178818804695</v>
+      </c>
+      <c r="P11">
+        <v>0.1060178818804695</v>
+      </c>
+      <c r="Q11">
+        <v>12.92175632888067</v>
+      </c>
+      <c r="R11">
+        <v>116.295806959926</v>
+      </c>
+      <c r="S11">
+        <v>0.08875156340122298</v>
+      </c>
+      <c r="T11">
+        <v>0.08875156340122298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H12">
+        <v>0.195449</v>
+      </c>
+      <c r="I12">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J12">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.285689666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.857069</v>
+      </c>
+      <c r="O12">
+        <v>0.05417001519008476</v>
+      </c>
+      <c r="P12">
+        <v>0.05417001519008476</v>
+      </c>
+      <c r="Q12">
+        <v>0.08376225322011112</v>
+      </c>
+      <c r="R12">
+        <v>0.7538602789810001</v>
+      </c>
+      <c r="S12">
+        <v>0.0005753111835640032</v>
+      </c>
+      <c r="T12">
+        <v>0.0005753111835640032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H13">
+        <v>0.195449</v>
+      </c>
+      <c r="I13">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J13">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.890688</v>
+      </c>
+      <c r="N13">
+        <v>23.672064</v>
+      </c>
+      <c r="O13">
+        <v>0.3324586794948855</v>
+      </c>
+      <c r="P13">
+        <v>0.3324586794948855</v>
+      </c>
+      <c r="Q13">
+        <v>0.5140756929706667</v>
+      </c>
+      <c r="R13">
+        <v>4.626681236736</v>
+      </c>
+      <c r="S13">
+        <v>0.003530868428136191</v>
+      </c>
+      <c r="T13">
+        <v>0.003530868428136191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H14">
+        <v>0.195449</v>
+      </c>
+      <c r="I14">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J14">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.536593666666666</v>
+      </c>
+      <c r="N14">
+        <v>19.609781</v>
+      </c>
+      <c r="O14">
+        <v>0.2754065676927831</v>
+      </c>
+      <c r="P14">
+        <v>0.2754065676927832</v>
+      </c>
+      <c r="Q14">
+        <v>0.4258568985187778</v>
+      </c>
+      <c r="R14">
+        <v>3.832712086669</v>
+      </c>
+      <c r="S14">
+        <v>0.002924948015330008</v>
+      </c>
+      <c r="T14">
+        <v>0.002924948015330009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H15">
+        <v>0.195449</v>
+      </c>
+      <c r="I15">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J15">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.505106</v>
+      </c>
+      <c r="N15">
+        <v>16.515318</v>
+      </c>
+      <c r="O15">
+        <v>0.231946855741777</v>
+      </c>
+      <c r="P15">
+        <v>0.2319468557417771</v>
+      </c>
+      <c r="Q15">
+        <v>0.3586558208646667</v>
+      </c>
+      <c r="R15">
+        <v>3.227902387782</v>
+      </c>
+      <c r="S15">
+        <v>0.002463385318104469</v>
+      </c>
+      <c r="T15">
+        <v>0.002463385318104469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H16">
+        <v>0.195449</v>
+      </c>
+      <c r="I16">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J16">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.516264666666667</v>
+      </c>
+      <c r="N16">
+        <v>7.548794</v>
+      </c>
+      <c r="O16">
+        <v>0.1060178818804695</v>
+      </c>
+      <c r="P16">
+        <v>0.1060178818804695</v>
+      </c>
+      <c r="Q16">
+        <v>0.1639338042784445</v>
+      </c>
+      <c r="R16">
+        <v>1.475404238506</v>
+      </c>
+      <c r="S16">
+        <v>0.00112596005169232</v>
+      </c>
+      <c r="T16">
+        <v>0.00112596005169232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.678262</v>
+      </c>
+      <c r="I17">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J17">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.285689666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.857069</v>
+      </c>
+      <c r="O17">
+        <v>0.05417001519008476</v>
+      </c>
+      <c r="P17">
+        <v>0.05417001519008476</v>
+      </c>
+      <c r="Q17">
+        <v>0.7192413704531111</v>
+      </c>
+      <c r="R17">
+        <v>6.473172334078</v>
+      </c>
+      <c r="S17">
+        <v>0.004940024750960562</v>
+      </c>
+      <c r="T17">
+        <v>0.004940024750960564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.5176547041053829</v>
-      </c>
-      <c r="H11">
-        <v>0.5176547041053829</v>
-      </c>
-      <c r="I11">
-        <v>0.09201670714188118</v>
-      </c>
-      <c r="J11">
-        <v>0.09201670714188118</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.24636686680524</v>
-      </c>
-      <c r="N11">
-        <v>2.24636686680524</v>
-      </c>
-      <c r="O11">
-        <v>0.09707358109103434</v>
-      </c>
-      <c r="P11">
-        <v>0.09707358109103434</v>
-      </c>
-      <c r="Q11">
-        <v>1.162842375748203</v>
-      </c>
-      <c r="R11">
-        <v>1.162842375748203</v>
-      </c>
-      <c r="S11">
-        <v>0.008932391282467362</v>
-      </c>
-      <c r="T11">
-        <v>0.008932391282467362</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.678262</v>
+      </c>
+      <c r="I18">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J18">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.890688</v>
+      </c>
+      <c r="N18">
+        <v>23.672064</v>
+      </c>
+      <c r="O18">
+        <v>0.3324586794948855</v>
+      </c>
+      <c r="P18">
+        <v>0.3324586794948855</v>
+      </c>
+      <c r="Q18">
+        <v>4.414213941418667</v>
+      </c>
+      <c r="R18">
+        <v>39.727925472768</v>
+      </c>
+      <c r="S18">
+        <v>0.0303185092271677</v>
+      </c>
+      <c r="T18">
+        <v>0.03031850922716771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.678262</v>
+      </c>
+      <c r="I19">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J19">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.536593666666666</v>
+      </c>
+      <c r="N19">
+        <v>19.609781</v>
+      </c>
+      <c r="O19">
+        <v>0.2754065676927831</v>
+      </c>
+      <c r="P19">
+        <v>0.2754065676927832</v>
+      </c>
+      <c r="Q19">
+        <v>3.656705586735777</v>
+      </c>
+      <c r="R19">
+        <v>32.910350280622</v>
+      </c>
+      <c r="S19">
+        <v>0.02511565219624439</v>
+      </c>
+      <c r="T19">
+        <v>0.0251156521962444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.678262</v>
+      </c>
+      <c r="I20">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J20">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.505106</v>
+      </c>
+      <c r="N20">
+        <v>16.515318</v>
+      </c>
+      <c r="O20">
+        <v>0.231946855741777</v>
+      </c>
+      <c r="P20">
+        <v>0.2319468557417771</v>
+      </c>
+      <c r="Q20">
+        <v>3.079670068590667</v>
+      </c>
+      <c r="R20">
+        <v>27.717030617316</v>
+      </c>
+      <c r="S20">
+        <v>0.02115235161465467</v>
+      </c>
+      <c r="T20">
+        <v>0.02115235161465468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.678262</v>
+      </c>
+      <c r="I21">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J21">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.516264666666667</v>
+      </c>
+      <c r="N21">
+        <v>7.548794</v>
+      </c>
+      <c r="O21">
+        <v>0.1060178818804695</v>
+      </c>
+      <c r="P21">
+        <v>0.1060178818804695</v>
+      </c>
+      <c r="Q21">
+        <v>1.407650457336445</v>
+      </c>
+      <c r="R21">
+        <v>12.668854116028</v>
+      </c>
+      <c r="S21">
+        <v>0.009668281588922207</v>
+      </c>
+      <c r="T21">
+        <v>0.009668281588922209</v>
       </c>
     </row>
   </sheetData>
